--- a/Resource/UserDetails.xlsx
+++ b/Resource/UserDetails.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NITHANTH\eclipse-workspace\petstore\Resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7640A7A-1512-4B4B-AA3E-5545D11F98CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F309C30D-13D6-403B-B5B5-DDE068D0F33E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="addUser" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -471,7 +471,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Resource/UserDetails.xlsx
+++ b/Resource/UserDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NITHANTH\eclipse-workspace\petstore\Resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F309C30D-13D6-403B-B5B5-DDE068D0F33E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA01B2F-71A5-469B-8B93-74C14E4D4264}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -471,7 +471,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
